--- a/spring-selenium-whatsapp/src/main/resources/Main_Contacts.xlsx
+++ b/spring-selenium-whatsapp/src/main/resources/Main_Contacts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\EclipseWorkspace\spring-selenium-whatsapp\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,10 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1-bkp" sheetId="2" r:id="rId2"/>
+    <sheet name="Bkp 31dec25" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1-bkp" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Bkp 31dec25'!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$164</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="448">
   <si>
     <t>Name</t>
   </si>
@@ -1342,6 +1344,36 @@
   </si>
   <si>
     <t>steve</t>
+  </si>
+  <si>
+    <t>no previous chat started from this person</t>
+  </si>
+  <si>
+    <t>SnP Nupur</t>
+  </si>
+  <si>
+    <t>Snp Soham</t>
+  </si>
+  <si>
+    <t>SnP Arvind</t>
+  </si>
+  <si>
+    <t>arvind bhai</t>
+  </si>
+  <si>
+    <t>SnP Divesh</t>
+  </si>
+  <si>
+    <t>divesh bhai</t>
+  </si>
+  <si>
+    <t>SnP Primo</t>
+  </si>
+  <si>
+    <t>SnP Vidushi</t>
+  </si>
+  <si>
+    <t>vidushiG</t>
   </si>
 </sst>
 </file>
@@ -1670,11 +1702,1968 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7760822300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9873348488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9930150571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8130097382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7438893750</v>
+      </c>
+      <c r="E6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9075005477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9974137156</v>
+      </c>
+      <c r="F8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9927050702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8884503043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8277685500</v>
+      </c>
+      <c r="F11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7469642083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8976339159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8971614022</v>
+      </c>
+      <c r="F14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7871698337</v>
+      </c>
+      <c r="D15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" s="3">
+        <v>9871411861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8870484365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9910224459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9953926849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>347</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9711070163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9811361102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8072069658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7393099060</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9513200656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7838386024</v>
+      </c>
+      <c r="F25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9818008131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9716160881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9828462586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9891914039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>353</v>
+      </c>
+      <c r="C30" s="3">
+        <v>9210880658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>354</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9958344955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" s="3">
+        <v>9873419468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" s="3">
+        <v>9873078164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="3">
+        <v>8446407160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7827648197</v>
+      </c>
+      <c r="F35" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9810074125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" s="3">
+        <v>9891851189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>357</v>
+      </c>
+      <c r="C38" s="3">
+        <v>9811611891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>352</v>
+      </c>
+      <c r="C39" s="3">
+        <v>9971507940</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>358</v>
+      </c>
+      <c r="C40" s="3">
+        <v>7838597165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>334</v>
+      </c>
+      <c r="C41" s="3">
+        <v>7838585577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8178980100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C43" s="3">
+        <v>9891697965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C44" s="3">
+        <v>9650299991</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>361</v>
+      </c>
+      <c r="C45" s="3">
+        <v>8800877516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>362</v>
+      </c>
+      <c r="C46" s="3">
+        <v>9810865025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>363</v>
+      </c>
+      <c r="C47" s="3">
+        <v>7889042035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>364</v>
+      </c>
+      <c r="C48" s="3">
+        <v>9816654323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>365</v>
+      </c>
+      <c r="C49" s="3">
+        <v>9711881764</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>366</v>
+      </c>
+      <c r="C50" s="3">
+        <v>9711001404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" s="3">
+        <v>9015599038</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>367</v>
+      </c>
+      <c r="C52" s="3">
+        <v>7838300617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>369</v>
+      </c>
+      <c r="C53" s="3">
+        <v>7838999939</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>370</v>
+      </c>
+      <c r="C54" s="3">
+        <v>9711889990</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>371</v>
+      </c>
+      <c r="C55" s="3">
+        <v>9711247994</v>
+      </c>
+      <c r="F55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C56" s="3">
+        <v>19058088154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>373</v>
+      </c>
+      <c r="C57" s="3">
+        <v>9711889993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>334</v>
+      </c>
+      <c r="C58" s="3">
+        <v>9831145915</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>374</v>
+      </c>
+      <c r="C59" s="3">
+        <v>8017990487</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>349</v>
+      </c>
+      <c r="C60" s="3">
+        <v>9871259085</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>349</v>
+      </c>
+      <c r="C61" s="3">
+        <v>8010448659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>375</v>
+      </c>
+      <c r="C62" s="3">
+        <v>9886356165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>376</v>
+      </c>
+      <c r="C63" s="3">
+        <v>7442020042</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>377</v>
+      </c>
+      <c r="C64" s="3">
+        <v>9920843016</v>
+      </c>
+      <c r="F64" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>432</v>
+      </c>
+      <c r="C65" s="3">
+        <v>7702129293</v>
+      </c>
+      <c r="D65" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>434</v>
+      </c>
+      <c r="C66" s="3">
+        <v>7946669196</v>
+      </c>
+      <c r="D66" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" s="3">
+        <v>9000738939</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>378</v>
+      </c>
+      <c r="C68" s="3">
+        <v>7466991468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>378</v>
+      </c>
+      <c r="C69" s="3">
+        <v>9371157611</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>433</v>
+      </c>
+      <c r="C70" s="3">
+        <v>7760992318</v>
+      </c>
+      <c r="D70" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" s="3">
+        <v>8861005138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>435</v>
+      </c>
+      <c r="C72" s="3">
+        <v>7791890846</v>
+      </c>
+      <c r="D72" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>379</v>
+      </c>
+      <c r="C73" s="3">
+        <v>9975607562</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" s="3">
+        <v>9930206797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>381</v>
+      </c>
+      <c r="C75" s="3">
+        <v>8087855632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>349</v>
+      </c>
+      <c r="C76" s="3">
+        <v>8898980184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>382</v>
+      </c>
+      <c r="C77" s="3">
+        <v>7404795629</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>380</v>
+      </c>
+      <c r="C78" s="3">
+        <v>9833929118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>383</v>
+      </c>
+      <c r="C79" s="3">
+        <v>9821720077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>349</v>
+      </c>
+      <c r="C80" s="3">
+        <v>7899976677</v>
+      </c>
+      <c r="E80" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>384</v>
+      </c>
+      <c r="C81" s="3">
+        <v>7799100771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
+        <v>385</v>
+      </c>
+      <c r="C82" s="3">
+        <v>7404246365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>334</v>
+      </c>
+      <c r="C83" s="3">
+        <v>8087507214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
+        <v>436</v>
+      </c>
+      <c r="C84" s="3">
+        <v>7852662114</v>
+      </c>
+      <c r="D84" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>349</v>
+      </c>
+      <c r="C85" s="3">
+        <v>9530028930</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>386</v>
+      </c>
+      <c r="C86" s="3">
+        <v>9819940004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s">
+        <v>349</v>
+      </c>
+      <c r="C87" s="3">
+        <v>9936706086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>387</v>
+      </c>
+      <c r="C88" s="3">
+        <v>9975354114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>388</v>
+      </c>
+      <c r="C89" s="3">
+        <v>7438285674</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>334</v>
+      </c>
+      <c r="C90" s="3">
+        <v>13463959060</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>368</v>
+      </c>
+      <c r="C91" s="3">
+        <v>9833676845</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" t="s">
+        <v>389</v>
+      </c>
+      <c r="C92" s="3">
+        <v>7042459490</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" t="s">
+        <v>390</v>
+      </c>
+      <c r="C93" s="3">
+        <v>9616600653</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" t="s">
+        <v>334</v>
+      </c>
+      <c r="C94" s="3">
+        <v>9773503507</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>336</v>
+      </c>
+      <c r="C95" s="3">
+        <v>7424917754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>349</v>
+      </c>
+      <c r="C96" s="3">
+        <v>9886379187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" t="s">
+        <v>334</v>
+      </c>
+      <c r="C97" s="3">
+        <v>8310411310</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" t="s">
+        <v>391</v>
+      </c>
+      <c r="C98" s="3">
+        <v>7776835809</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" s="3">
+        <v>7710009849</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>437</v>
+      </c>
+      <c r="C100" s="3">
+        <v>7958296915</v>
+      </c>
+      <c r="D100" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>393</v>
+      </c>
+      <c r="C101" s="3">
+        <v>7570330395</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" t="s">
+        <v>394</v>
+      </c>
+      <c r="C102" s="3">
+        <v>9167699305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>395</v>
+      </c>
+      <c r="C103" s="3">
+        <v>7306257262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>334</v>
+      </c>
+      <c r="C104" s="3">
+        <v>8826259905</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" t="s">
+        <v>360</v>
+      </c>
+      <c r="C105" s="3">
+        <v>7979720505</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" t="s">
+        <v>396</v>
+      </c>
+      <c r="C106" s="3">
+        <v>9702573675</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>397</v>
+      </c>
+      <c r="C107" s="3">
+        <v>7459049598</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>398</v>
+      </c>
+      <c r="C108" s="3">
+        <v>7448272020</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" t="s">
+        <v>399</v>
+      </c>
+      <c r="C109" s="3">
+        <v>7743478893</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" t="s">
+        <v>400</v>
+      </c>
+      <c r="C110" s="3">
+        <v>9850895190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>401</v>
+      </c>
+      <c r="C111" s="3">
+        <v>9990030383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112" t="s">
+        <v>343</v>
+      </c>
+      <c r="C112" s="3">
+        <v>9130013979</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" t="s">
+        <v>349</v>
+      </c>
+      <c r="C113" s="3">
+        <v>9873383155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>231</v>
+      </c>
+      <c r="B114" t="s">
+        <v>402</v>
+      </c>
+      <c r="C114" s="3">
+        <v>8095170006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>232</v>
+      </c>
+      <c r="B115" t="s">
+        <v>349</v>
+      </c>
+      <c r="C115" s="3">
+        <v>7760174801</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>235</v>
+      </c>
+      <c r="B116" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116" s="3">
+        <v>9650340112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>236</v>
+      </c>
+      <c r="B117" t="s">
+        <v>403</v>
+      </c>
+      <c r="C117" s="3">
+        <v>9971496210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>239</v>
+      </c>
+      <c r="B118" t="s">
+        <v>404</v>
+      </c>
+      <c r="C118" s="3">
+        <v>9538965128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>241</v>
+      </c>
+      <c r="B119" t="s">
+        <v>349</v>
+      </c>
+      <c r="C119" s="3">
+        <v>9911052291</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" t="s">
+        <v>405</v>
+      </c>
+      <c r="C120" s="3">
+        <v>7918184267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>245</v>
+      </c>
+      <c r="B121" t="s">
+        <v>349</v>
+      </c>
+      <c r="C121" s="3">
+        <v>9971876743</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>246</v>
+      </c>
+      <c r="B122" t="s">
+        <v>349</v>
+      </c>
+      <c r="C122" s="3">
+        <v>8826937171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>249</v>
+      </c>
+      <c r="B123" t="s">
+        <v>334</v>
+      </c>
+      <c r="C123" s="3">
+        <v>9511907945</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>251</v>
+      </c>
+      <c r="B124" t="s">
+        <v>406</v>
+      </c>
+      <c r="C124" s="3">
+        <v>9999200140</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>253</v>
+      </c>
+      <c r="B125" t="s">
+        <v>334</v>
+      </c>
+      <c r="C125" s="3">
+        <v>9971797550</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>255</v>
+      </c>
+      <c r="B126" t="s">
+        <v>348</v>
+      </c>
+      <c r="C126" s="3">
+        <v>9899445368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>256</v>
+      </c>
+      <c r="B127" t="s">
+        <v>407</v>
+      </c>
+      <c r="C127" s="3">
+        <v>9985697279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>408</v>
+      </c>
+      <c r="C128" s="3">
+        <v>7897756777</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129" t="s">
+        <v>409</v>
+      </c>
+      <c r="C129" s="3">
+        <v>19172511354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" t="s">
+        <v>354</v>
+      </c>
+      <c r="C130" s="3">
+        <v>9971380433</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>348</v>
+      </c>
+      <c r="C131" s="3">
+        <v>9911876270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" t="s">
+        <v>334</v>
+      </c>
+      <c r="C132" s="3">
+        <v>9954964874</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" t="s">
+        <v>410</v>
+      </c>
+      <c r="C133" s="3">
+        <v>9650239066</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" t="s">
+        <v>349</v>
+      </c>
+      <c r="C134" s="3">
+        <v>9716620636</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
+        <v>411</v>
+      </c>
+      <c r="C135" s="3">
+        <v>9717004535</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" t="s">
+        <v>412</v>
+      </c>
+      <c r="C136" s="3">
+        <v>9810907496</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>273</v>
+      </c>
+      <c r="B137" t="s">
+        <v>349</v>
+      </c>
+      <c r="C137" s="3">
+        <v>7017123462</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>279</v>
+      </c>
+      <c r="B138" t="s">
+        <v>413</v>
+      </c>
+      <c r="C138" s="3">
+        <v>9911782667</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>281</v>
+      </c>
+      <c r="B139" t="s">
+        <v>414</v>
+      </c>
+      <c r="C139" s="3">
+        <v>8285353559</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>283</v>
+      </c>
+      <c r="B140" t="s">
+        <v>349</v>
+      </c>
+      <c r="C140" s="3">
+        <v>9930578130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>285</v>
+      </c>
+      <c r="B141" t="s">
+        <v>415</v>
+      </c>
+      <c r="C141" s="3">
+        <v>9620977736</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>287</v>
+      </c>
+      <c r="B142" t="s">
+        <v>368</v>
+      </c>
+      <c r="C142" s="3">
+        <v>18045439757</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>289</v>
+      </c>
+      <c r="B143" t="s">
+        <v>349</v>
+      </c>
+      <c r="C143" s="3">
+        <v>7733940488</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>291</v>
+      </c>
+      <c r="B144" t="s">
+        <v>416</v>
+      </c>
+      <c r="C144" s="3">
+        <v>9916452021</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>293</v>
+      </c>
+      <c r="B145" t="s">
+        <v>393</v>
+      </c>
+      <c r="C145" s="3">
+        <v>8956105244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>295</v>
+      </c>
+      <c r="B146" t="s">
+        <v>349</v>
+      </c>
+      <c r="C146" s="3">
+        <v>9987540317</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>297</v>
+      </c>
+      <c r="B147" t="s">
+        <v>417</v>
+      </c>
+      <c r="C147" s="3">
+        <v>9823505142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>299</v>
+      </c>
+      <c r="B148" t="s">
+        <v>418</v>
+      </c>
+      <c r="C148" s="3">
+        <v>9999974367</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>301</v>
+      </c>
+      <c r="B149" t="s">
+        <v>419</v>
+      </c>
+      <c r="C149" s="3">
+        <v>7920439309</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>303</v>
+      </c>
+      <c r="B150" t="s">
+        <v>348</v>
+      </c>
+      <c r="C150" s="3">
+        <v>9821139585</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>305</v>
+      </c>
+      <c r="B151" t="s">
+        <v>420</v>
+      </c>
+      <c r="C151" s="3">
+        <v>66909712200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>307</v>
+      </c>
+      <c r="B152" t="s">
+        <v>421</v>
+      </c>
+      <c r="C152" s="3">
+        <v>17863656226</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>309</v>
+      </c>
+      <c r="B153" t="s">
+        <v>334</v>
+      </c>
+      <c r="C153" s="3">
+        <v>8800335408</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>310</v>
+      </c>
+      <c r="B154" t="s">
+        <v>422</v>
+      </c>
+      <c r="C154" s="3">
+        <v>9513342269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" t="s">
+        <v>349</v>
+      </c>
+      <c r="C155" s="3">
+        <v>9540555878</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>312</v>
+      </c>
+      <c r="B156" t="s">
+        <v>349</v>
+      </c>
+      <c r="C156" s="3">
+        <v>8688559299</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>317</v>
+      </c>
+      <c r="B157" t="s">
+        <v>423</v>
+      </c>
+      <c r="C157" s="3">
+        <v>9818129318</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>318</v>
+      </c>
+      <c r="B158" t="s">
+        <v>349</v>
+      </c>
+      <c r="C158" s="3">
+        <v>9711736309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>321</v>
+      </c>
+      <c r="B159" t="s">
+        <v>424</v>
+      </c>
+      <c r="C159" s="3">
+        <v>9650555093</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>323</v>
+      </c>
+      <c r="B160" t="s">
+        <v>349</v>
+      </c>
+      <c r="C160" s="3">
+        <v>14377726355</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>325</v>
+      </c>
+      <c r="B161" t="s">
+        <v>349</v>
+      </c>
+      <c r="C161" s="3">
+        <v>9560877004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>326</v>
+      </c>
+      <c r="B162" t="s">
+        <v>425</v>
+      </c>
+      <c r="C162" s="3">
+        <v>9717196846</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>329</v>
+      </c>
+      <c r="B163" t="s">
+        <v>426</v>
+      </c>
+      <c r="C163" s="3">
+        <v>9818409548</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>331</v>
+      </c>
+      <c r="B164" t="s">
+        <v>349</v>
+      </c>
+      <c r="C164" s="3">
+        <v>9962508385</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>439</v>
+      </c>
+      <c r="B165" t="s">
+        <v>334</v>
+      </c>
+      <c r="C165" s="3">
+        <v>8868836678</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>440</v>
+      </c>
+      <c r="B166" t="s">
+        <v>349</v>
+      </c>
+      <c r="C166" s="3">
+        <v>9627278278</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>441</v>
+      </c>
+      <c r="B167" t="s">
+        <v>442</v>
+      </c>
+      <c r="C167" s="3">
+        <v>9911956799</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>443</v>
+      </c>
+      <c r="B168" t="s">
+        <v>444</v>
+      </c>
+      <c r="C168" s="3">
+        <v>9075018393</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>445</v>
+      </c>
+      <c r="B169" t="s">
+        <v>395</v>
+      </c>
+      <c r="C169" s="3">
+        <v>603612332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>446</v>
+      </c>
+      <c r="B170" t="s">
+        <v>447</v>
+      </c>
+      <c r="C170" s="3">
+        <v>9581441892</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F164"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F166"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,6 +3773,9 @@
       <c r="C8" s="3">
         <v>9974137156</v>
       </c>
+      <c r="F8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3575,12 +5567,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
